--- a/Basic Pull Sheet.xlsx
+++ b/Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roneill\Documents\CRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A58B1A7E-0011-4EEE-BE25-5B5CE9C2343E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E04031-22E4-4489-A321-4E521B1001FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10470" yWindow="2280" windowWidth="17730" windowHeight="12705" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="10125" yWindow="1935" windowWidth="17730" windowHeight="12705" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="45">
   <si>
     <t>Pull #</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>2.130.A</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -525,7 +528,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J24"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -617,7 +620,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -649,7 +652,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>

--- a/Basic Pull Sheet.xlsx
+++ b/Basic Pull Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roneill\Documents\CRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83E04031-22E4-4489-A321-4E521B1001FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65D3F7C-8315-49D6-B770-ECA8A736A742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10125" yWindow="1935" windowWidth="17730" windowHeight="12705" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,11 +527,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C54F67-24E4-4C2A-B4B7-7439936B8FDB}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">

--- a/Basic Pull Sheet.xlsx
+++ b/Basic Pull Sheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roneill\Documents\CRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65D3F7C-8315-49D6-B770-ECA8A736A742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445058E5-DE38-476F-8EEB-695E9C7B9E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="3885" yWindow="1305" windowWidth="21465" windowHeight="13260" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -167,16 +167,19 @@
     <t>2.126.A</t>
   </si>
   <si>
+    <t>L</t>
+  </si>
+  <si>
     <t>2.130.A</t>
-  </si>
-  <si>
-    <t>L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -206,10 +209,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -527,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C54F67-24E4-4C2A-B4B7-7439936B8FDB}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,7 +633,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
@@ -659,7 +665,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
@@ -1277,8 +1283,8 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>43</v>
+      <c r="A24" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>11</v>

--- a/Basic Pull Sheet.xlsx
+++ b/Basic Pull Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roneill\Documents\CRO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{445058E5-DE38-476F-8EEB-695E9C7B9E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538151F1-6187-4240-B273-C9CE4784B784}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3885" yWindow="1305" windowWidth="21465" windowHeight="13260" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
+    <workbookView xWindow="3540" yWindow="0" windowWidth="21900" windowHeight="15600" xr2:uid="{B55DDC81-D8A6-4AC8-B7A6-3CDB36520BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="51">
   <si>
     <t>Pull #</t>
   </si>
@@ -171,6 +171,24 @@
   </si>
   <si>
     <t>2.130.A</t>
+  </si>
+  <si>
+    <t>7C#12</t>
+  </si>
+  <si>
+    <t>3C#6</t>
+  </si>
+  <si>
+    <t>12C#14</t>
+  </si>
+  <si>
+    <t>19C#14</t>
+  </si>
+  <si>
+    <t>25C#14</t>
+  </si>
+  <si>
+    <t>10C#14</t>
   </si>
 </sst>
 </file>
@@ -533,8 +551,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C54F67-24E4-4C2A-B4B7-7439936B8FDB}">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -591,8 +609,8 @@
       <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>14</v>
+      <c r="E2" t="s">
+        <v>38</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>13</v>
@@ -623,8 +641,8 @@
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
+      <c r="E3" t="s">
+        <v>38</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -655,8 +673,8 @@
       <c r="D4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>14</v>
+      <c r="E4" t="s">
+        <v>45</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>13</v>
@@ -687,8 +705,8 @@
       <c r="D5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>14</v>
+      <c r="E5" t="s">
+        <v>46</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
@@ -719,8 +737,8 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>14</v>
+      <c r="E6" t="s">
+        <v>47</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>13</v>
@@ -751,8 +769,8 @@
       <c r="D7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>14</v>
+      <c r="E7" t="s">
+        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>13</v>
@@ -783,8 +801,8 @@
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>14</v>
+      <c r="E8" t="s">
+        <v>49</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>13</v>
@@ -815,8 +833,8 @@
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>14</v>
+      <c r="E9" t="s">
+        <v>49</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>13</v>
@@ -847,8 +865,8 @@
       <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>14</v>
+      <c r="E10" t="s">
+        <v>49</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>13</v>
@@ -879,8 +897,8 @@
       <c r="D11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>14</v>
+      <c r="E11" t="s">
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>13</v>
@@ -911,8 +929,8 @@
       <c r="D12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>14</v>
+      <c r="E12" t="s">
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -943,8 +961,8 @@
       <c r="D13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>14</v>
+      <c r="E13" t="s">
+        <v>50</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
@@ -975,8 +993,8 @@
       <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>14</v>
+      <c r="E14" t="s">
+        <v>50</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
